--- a/week 3/lists.xlsx
+++ b/week 3/lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmal/Desktop/Coder Faculty/Bootcamp/codes/week 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83EEB50-60E7-A047-9250-A4C0B4C06F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123C76CD-8F7E-F149-BA7F-9443F6147410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{820DFFE7-67F1-F24B-B277-97F3929A446B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Variable</t>
   </si>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>LIFO (last in first out)</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>FIFO</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>2d-list</t>
   </si>
 </sst>
 </file>
@@ -420,13 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A8F941-051F-F641-86B2-DD7981E16339}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="181" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -532,9 +559,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
       <c r="B18" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
